--- a/Tos.FoodProcs.Web/templates/haigoMasterIchiran_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/haigoMasterIchiran_vi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn\FP-Lite HAINGOAI - VIET HOA\20250211_NEW\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\~2025\FPL_Vietnamese_Version2\1.SRC_v2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DED977-0207-4DA9-AB37-9E9CF838ECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="13332"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,42 +23,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Master công thức</t>
   </si>
   <si>
-    <t>Nhóm bán thành phẩm：</t>
-  </si>
-  <si>
-    <t>Tên công thức     　    ：</t>
-  </si>
-  <si>
-    <t>Hiển thị dữ liệu
-không sử dụng　    　 ：</t>
-  </si>
-  <si>
-    <t>Ngày hiệu lực              ：</t>
-  </si>
-  <si>
-    <t>Ngày xuất                    ：</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất              ：</t>
-  </si>
-  <si>
     <t>Mã công thức</t>
   </si>
   <si>
     <t>Tên công thức</t>
   </si>
   <si>
-    <t>Tên công thức rút gọn</t>
-  </si>
-  <si>
-    <t>Nhóm bán thành phẩm</t>
-  </si>
-  <si>
     <t>Phiên bản</t>
   </si>
   <si>
@@ -70,9 +46,6 @@
     <t>Bội suất cơ bản</t>
   </si>
   <si>
-    <t>Loại quy đổi</t>
-  </si>
-  <si>
     <t>Tỉ trọng</t>
   </si>
   <si>
@@ -82,9 +55,6 @@
     <t>Trọng lượng sản xuất tối đa</t>
   </si>
   <si>
-    <t>Dung dịch gia vị</t>
-  </si>
-  <si>
     <t>Mã dây chuyền</t>
   </si>
   <si>
@@ -94,18 +64,44 @@
     <t>Thứ tự ưu tiên</t>
   </si>
   <si>
-    <t>Triển khai</t>
-  </si>
-  <si>
     <t>Không sử dụng</t>
+  </si>
+  <si>
+    <t>Phân loại nhóm</t>
+  </si>
+  <si>
+    <t>Phạm vi hiển thị</t>
+  </si>
+  <si>
+    <t>Ngày hiệu lực</t>
+  </si>
+  <si>
+    <t>Ngày giờ xuất</t>
+  </si>
+  <si>
+    <t>Người xuất</t>
+  </si>
+  <si>
+    <t>Tên công thức (viết tắt)</t>
+  </si>
+  <si>
+    <t>Đơn vị quy đổi</t>
+  </si>
+  <si>
+    <t>Nhãn BTP</t>
+  </si>
+  <si>
+    <t>Tự động
+lên kế hoạch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="@* \:"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -226,15 +222,15 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -242,41 +238,26 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="21" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -284,11 +265,26 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -384,6 +380,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -419,6 +432,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -602,269 +632,248 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="18" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="36" style="14" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="16" customWidth="1"/>
-    <col min="14" max="14" width="15" style="16" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="23.21875" style="16" customWidth="1"/>
-    <col min="17" max="18" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="26.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="36" style="10" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="12" customWidth="1"/>
+    <col min="14" max="14" width="15" style="12" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" style="12" customWidth="1"/>
+    <col min="17" max="18" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="2"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="28.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="13"/>
       <c r="D6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="D7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="D8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
       <c r="D9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" s="17" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="K10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="L10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="M10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="O10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="P10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="Q10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
